--- a/plan.xlsx
+++ b/plan.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ahmed\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Work\Projects\.NET\HelloWorldApp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2521DB0A-30CD-49B9-80FC-4C5AF5F53067}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BB1016F-6C58-437B-B6D6-2B47588C5845}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -147,9 +147,6 @@
     <t>goal: lv2 start</t>
   </si>
   <si>
-    <t>goal: #230 start  ---- currently: 85</t>
-  </si>
-  <si>
     <t xml:space="preserve">goal: #390 start </t>
   </si>
   <si>
@@ -169,6 +166,9 @@
   </si>
   <si>
     <t>goal: lv4: start</t>
+  </si>
+  <si>
+    <t>goal: #230 start  ---- currently: 90</t>
   </si>
 </sst>
 </file>
@@ -189,7 +189,7 @@
       <name val="Cascadia Code"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -220,6 +220,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="22">
     <border>
@@ -518,7 +524,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -581,11 +587,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -596,26 +600,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -893,8 +889,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.42578125" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -958,7 +954,7 @@
       <c r="E3" s="22">
         <v>2</v>
       </c>
-      <c r="F3" s="34" t="s">
+      <c r="F3" s="12" t="s">
         <v>33</v>
       </c>
       <c r="G3" s="7"/>
@@ -971,13 +967,13 @@
         <v>2</v>
       </c>
       <c r="C4" s="27"/>
-      <c r="D4" s="27" t="s">
+      <c r="D4" s="39" t="s">
         <v>12</v>
       </c>
       <c r="E4" s="22">
         <v>3</v>
       </c>
-      <c r="F4" s="33" t="s">
+      <c r="F4" s="32" t="s">
         <v>7</v>
       </c>
       <c r="G4" s="7"/>
@@ -1008,8 +1004,8 @@
       <c r="B6" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37" t="s">
+      <c r="C6" s="35"/>
+      <c r="D6" s="35" t="s">
         <v>13</v>
       </c>
       <c r="E6" s="24">
@@ -1023,25 +1019,25 @@
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="8"/>
       <c r="B7" s="20"/>
-      <c r="C7" s="38" t="s">
+      <c r="C7" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="38"/>
+      <c r="D7" s="36"/>
       <c r="E7" s="25"/>
       <c r="F7" s="6"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B8" s="5"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="39" t="s">
+      <c r="C8" s="36"/>
+      <c r="D8" s="38" t="s">
         <v>14</v>
       </c>
       <c r="E8" s="7"/>
     </row>
     <row r="9" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="5"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="35"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="33"/>
       <c r="E9" s="7"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -1073,12 +1069,12 @@
         <v>22</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F12" s="32" t="s">
+      <c r="F12" s="1" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1087,7 +1083,7 @@
         <v>23</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>23</v>
@@ -1101,7 +1097,7 @@
         <v>24</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>24</v>
@@ -1115,7 +1111,7 @@
         <v>25</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>25</v>
@@ -1129,7 +1125,7 @@
         <v>26</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>26</v>
@@ -1142,36 +1138,36 @@
       <c r="A17" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="40"/>
+      <c r="B17" s="37"/>
       <c r="E17" s="2" t="s">
         <v>27</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="40"/>
+      <c r="B18" s="37"/>
       <c r="E18" s="2" t="s">
         <v>28</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="40"/>
+      <c r="B19" s="37"/>
       <c r="E19" s="2" t="s">
         <v>29</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -1179,13 +1175,13 @@
         <v>30</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>30</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/plan.xlsx
+++ b/plan.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ahmed\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\_projects\Angular\HelloWorldApp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2521DB0A-30CD-49B9-80FC-4C5AF5F53067}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25513A47-5D62-4B9B-A2D2-9FFFFC09262D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -189,7 +189,7 @@
       <name val="Cascadia Code"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -220,6 +220,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="22">
     <border>
@@ -518,7 +524,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -581,11 +587,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -596,26 +600,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -893,8 +889,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.42578125" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -951,14 +947,14 @@
       <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="39" t="s">
         <v>15</v>
       </c>
       <c r="D3" s="27"/>
       <c r="E3" s="22">
         <v>2</v>
       </c>
-      <c r="F3" s="34" t="s">
+      <c r="F3" s="12" t="s">
         <v>33</v>
       </c>
       <c r="G3" s="7"/>
@@ -977,7 +973,7 @@
       <c r="E4" s="22">
         <v>3</v>
       </c>
-      <c r="F4" s="33" t="s">
+      <c r="F4" s="32" t="s">
         <v>7</v>
       </c>
       <c r="G4" s="7"/>
@@ -1008,8 +1004,8 @@
       <c r="B6" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37" t="s">
+      <c r="C6" s="35"/>
+      <c r="D6" s="35" t="s">
         <v>13</v>
       </c>
       <c r="E6" s="24">
@@ -1023,25 +1019,25 @@
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="8"/>
       <c r="B7" s="20"/>
-      <c r="C7" s="38" t="s">
+      <c r="C7" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="38"/>
+      <c r="D7" s="36"/>
       <c r="E7" s="25"/>
       <c r="F7" s="6"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B8" s="5"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="39" t="s">
+      <c r="C8" s="36"/>
+      <c r="D8" s="38" t="s">
         <v>14</v>
       </c>
       <c r="E8" s="7"/>
     </row>
     <row r="9" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="5"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="35"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="33"/>
       <c r="E9" s="7"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -1078,7 +1074,7 @@
       <c r="E12" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F12" s="32" t="s">
+      <c r="F12" s="1" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1142,7 +1138,7 @@
       <c r="A17" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="40"/>
+      <c r="B17" s="37"/>
       <c r="E17" s="2" t="s">
         <v>27</v>
       </c>
@@ -1154,7 +1150,7 @@
       <c r="A18" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="40"/>
+      <c r="B18" s="37"/>
       <c r="E18" s="2" t="s">
         <v>28</v>
       </c>
@@ -1166,7 +1162,7 @@
       <c r="A19" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="40"/>
+      <c r="B19" s="37"/>
       <c r="E19" s="2" t="s">
         <v>29</v>
       </c>

--- a/plan.xlsx
+++ b/plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Work\Projects\.NET\HelloWorldApp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BB1016F-6C58-437B-B6D6-2B47588C5845}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6917D44-49F1-43E0-818B-CBD0BE2066C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -175,7 +175,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -187,6 +187,13 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Cascadia Code"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Cascadia Code"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="7">
@@ -290,11 +297,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FFFF0000"/>
-      </left>
-      <right style="thin">
-        <color theme="2" tint="-9.9978637043366805E-2"/>
+      <left style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFF0000"/>
       </right>
       <top style="medium">
         <color rgb="FFFF0000"/>
@@ -311,56 +318,11 @@
       <right style="medium">
         <color rgb="FFFF0000"/>
       </right>
-      <top style="medium">
-        <color rgb="FFFF0000"/>
-      </top>
-      <bottom style="thin">
-        <color theme="2" tint="-9.9978637043366805E-2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFFF0000"/>
-      </left>
-      <right style="thin">
-        <color theme="2" tint="-9.9978637043366805E-2"/>
-      </right>
       <top style="thin">
         <color theme="2" tint="-9.9978637043366805E-2"/>
       </top>
       <bottom style="thin">
         <color theme="2" tint="-9.9978637043366805E-2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="2" tint="-9.9978637043366805E-2"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFFF0000"/>
-      </right>
-      <top style="thin">
-        <color theme="2" tint="-9.9978637043366805E-2"/>
-      </top>
-      <bottom style="thin">
-        <color theme="2" tint="-9.9978637043366805E-2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFFF0000"/>
-      </left>
-      <right style="thin">
-        <color theme="2" tint="-9.9978637043366805E-2"/>
-      </right>
-      <top style="thin">
-        <color theme="2" tint="-9.9978637043366805E-2"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFFF0000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -518,6 +480,51 @@
       </right>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </right>
+      <top style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </right>
+      <top style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFF0000"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -540,27 +547,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -569,14 +563,14 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -587,25 +581,38 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -890,14 +897,14 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.42578125" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="57.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" style="29" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" style="24" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.42578125" style="1" customWidth="1"/>
     <col min="5" max="5" width="25.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="55.7109375" style="1" customWidth="1"/>
@@ -905,146 +912,146 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="26" t="s">
+      <c r="B1" s="35"/>
+      <c r="C1" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="10"/>
+      <c r="F1" s="9"/>
       <c r="G1" s="7"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="11">
+      <c r="A2" s="37">
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27" t="s">
+      <c r="C2" s="22"/>
+      <c r="D2" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="22">
+      <c r="E2" s="17">
         <v>1</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="10" t="s">
         <v>5</v>
       </c>
       <c r="G2" s="7"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="11">
+      <c r="A3" s="37">
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="27"/>
-      <c r="E3" s="22">
+      <c r="D3" s="22"/>
+      <c r="E3" s="17">
         <v>2</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="10" t="s">
         <v>33</v>
       </c>
       <c r="G3" s="7"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="11">
+      <c r="A4" s="37">
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="27"/>
-      <c r="D4" s="39" t="s">
+      <c r="C4" s="22"/>
+      <c r="D4" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="22">
+      <c r="E4" s="17">
         <v>3</v>
       </c>
-      <c r="F4" s="32" t="s">
+      <c r="F4" s="27" t="s">
         <v>7</v>
       </c>
       <c r="G4" s="7"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="13">
+      <c r="A5" s="38">
         <v>4</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="27"/>
-      <c r="E5" s="23">
+      <c r="D5" s="22"/>
+      <c r="E5" s="18">
         <v>4</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="11" t="s">
         <v>8</v>
       </c>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="15">
+      <c r="A6" s="39">
         <v>5</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35" t="s">
+      <c r="C6" s="30"/>
+      <c r="D6" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="24">
+      <c r="E6" s="19">
         <v>5</v>
       </c>
-      <c r="F6" s="16" t="s">
+      <c r="F6" s="12" t="s">
         <v>9</v>
       </c>
       <c r="G6" s="7"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="8"/>
-      <c r="B7" s="20"/>
-      <c r="C7" s="36" t="s">
+      <c r="B7" s="15"/>
+      <c r="C7" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="36"/>
-      <c r="E7" s="25"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="20"/>
       <c r="F7" s="6"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B8" s="5"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="38" t="s">
+      <c r="C8" s="31"/>
+      <c r="D8" s="22" t="s">
         <v>14</v>
       </c>
       <c r="E8" s="7"/>
     </row>
     <row r="9" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="5"/>
-      <c r="C9" s="34"/>
-      <c r="D9" s="33"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="28"/>
       <c r="E9" s="7"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="28"/>
+      <c r="C10" s="23"/>
       <c r="D10" s="6"/>
       <c r="E10" s="1" t="s">
         <v>31</v>
@@ -1054,13 +1061,13 @@
       <c r="A11" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="30" t="s">
+      <c r="B11" s="25" t="s">
         <v>32</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="31" t="s">
+      <c r="F11" s="26" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1138,7 +1145,7 @@
       <c r="A17" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="37"/>
+      <c r="B17" s="32"/>
       <c r="E17" s="2" t="s">
         <v>27</v>
       </c>
@@ -1150,7 +1157,7 @@
       <c r="A18" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="37"/>
+      <c r="B18" s="32"/>
       <c r="E18" s="2" t="s">
         <v>28</v>
       </c>
@@ -1162,7 +1169,7 @@
       <c r="A19" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="37"/>
+      <c r="B19" s="32"/>
       <c r="E19" s="2" t="s">
         <v>29</v>
       </c>

--- a/plan.xlsx
+++ b/plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Work\Projects\.NET\HelloWorldApp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6917D44-49F1-43E0-818B-CBD0BE2066C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA29018A-2F1F-4AF9-8F5D-49F3409B9D24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -175,7 +175,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -195,8 +195,21 @@
       <name val="Cascadia Code"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="7" tint="0.59999389629810485"/>
+      <name val="Cascadia Code"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="16"/>
+      <color theme="7" tint="0.59999389629810485"/>
+      <name val="Cascadia Code"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -229,12 +242,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2"/>
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -379,36 +398,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FFFF0000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFFF0000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFFF0000"/>
-      </top>
-      <bottom style="thin">
-        <color theme="2" tint="-9.9978637043366805E-2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFFF0000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFFF0000"/>
-      </right>
-      <top style="thin">
-        <color theme="2" tint="-9.9978637043366805E-2"/>
-      </top>
-      <bottom style="thin">
-        <color theme="2" tint="-9.9978637043366805E-2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color theme="2" tint="-9.9978637043366805E-2"/>
@@ -443,43 +432,6 @@
       <bottom style="thin">
         <color theme="2" tint="-9.9978637043366805E-2"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFFF0000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFFF0000"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FFFF0000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFFF0000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFFF0000"/>
-      </right>
-      <top style="thin">
-        <color theme="2" tint="-9.9978637043366805E-2"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFFF0000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFFF0000"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -531,7 +483,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -554,7 +506,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -563,16 +515,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -584,36 +530,29 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -897,29 +836,29 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.42578125" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="57.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" style="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" style="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="55.7109375" style="1" customWidth="1"/>
     <col min="7" max="16384" width="18.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:7" ht="23.25" x14ac:dyDescent="0.4">
+      <c r="A1" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="21" t="s">
+      <c r="B1" s="27"/>
+      <c r="C1" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="36" t="s">
         <v>19</v>
       </c>
       <c r="E1" s="16" t="s">
@@ -929,14 +868,14 @@
       <c r="G1" s="7"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="37">
+      <c r="A2" s="29">
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22" t="s">
+      <c r="C2" s="32"/>
+      <c r="D2" s="33" t="s">
         <v>11</v>
       </c>
       <c r="E2" s="17">
@@ -948,16 +887,16 @@
       <c r="G2" s="7"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="37">
+      <c r="A3" s="29">
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="22"/>
+      <c r="D3" s="33"/>
       <c r="E3" s="17">
         <v>2</v>
       </c>
@@ -967,35 +906,35 @@
       <c r="G3" s="7"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="37">
+      <c r="A4" s="29">
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="22"/>
+      <c r="C4" s="32"/>
       <c r="D4" s="33" t="s">
         <v>12</v>
       </c>
       <c r="E4" s="17">
         <v>3</v>
       </c>
-      <c r="F4" s="27" t="s">
+      <c r="F4" s="25" t="s">
         <v>7</v>
       </c>
       <c r="G4" s="7"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="38">
+      <c r="A5" s="30">
         <v>4</v>
       </c>
       <c r="B5" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="22"/>
+      <c r="D5" s="33"/>
       <c r="E5" s="18">
         <v>4</v>
       </c>
@@ -1005,14 +944,14 @@
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="39">
+      <c r="A6" s="31">
         <v>5</v>
       </c>
       <c r="B6" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="30"/>
-      <c r="D6" s="34" t="s">
+      <c r="C6" s="32"/>
+      <c r="D6" s="33" t="s">
         <v>13</v>
       </c>
       <c r="E6" s="19">
@@ -1026,32 +965,32 @@
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="8"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="31" t="s">
+      <c r="C7" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="31"/>
+      <c r="D7" s="33"/>
       <c r="E7" s="20"/>
       <c r="F7" s="6"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B8" s="5"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="22" t="s">
+      <c r="C8" s="32"/>
+      <c r="D8" s="33" t="s">
         <v>14</v>
       </c>
       <c r="E8" s="7"/>
     </row>
-    <row r="9" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B9" s="5"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="28"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="34"/>
       <c r="E9" s="7"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="23"/>
+      <c r="C10" s="21"/>
       <c r="D10" s="6"/>
       <c r="E10" s="1" t="s">
         <v>31</v>
@@ -1061,13 +1000,13 @@
       <c r="A11" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="23" t="s">
         <v>32</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="26" t="s">
+      <c r="F11" s="24" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1145,7 +1084,7 @@
       <c r="A17" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="32"/>
+      <c r="B17" s="26"/>
       <c r="E17" s="2" t="s">
         <v>27</v>
       </c>
@@ -1157,7 +1096,7 @@
       <c r="A18" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="32"/>
+      <c r="B18" s="26"/>
       <c r="E18" s="2" t="s">
         <v>28</v>
       </c>
@@ -1169,7 +1108,7 @@
       <c r="A19" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="32"/>
+      <c r="B19" s="26"/>
       <c r="E19" s="2" t="s">
         <v>29</v>
       </c>
